--- a/datos/Datos TFM Alberto.xlsx
+++ b/datos/Datos TFM Alberto.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\collf\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\TFM-Ortiguilla\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDADB21-8B0C-4830-B429-23D980CACD07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE340ED-B217-4268-B2C3-7D66A4A1C1D8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{1CB412F8-9ABE-48C7-98C9-C1273AA5EDC5}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305" activeTab="1" xr2:uid="{1CB412F8-9ABE-48C7-98C9-C1273AA5EDC5}"/>
   </bookViews>
   <sheets>
     <sheet name="Pesos inicial y final" sheetId="1" r:id="rId1"/>
-    <sheet name="Datos TFG" sheetId="2" r:id="rId2"/>
+    <sheet name="Calculos clorofila" sheetId="3" r:id="rId2"/>
+    <sheet name="Datos TFG" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
@@ -25,9 +26,9 @@
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="86">
   <si>
     <t>n</t>
   </si>
@@ -267,6 +268,62 @@
   <si>
     <t>clorofila a+c (ug(g)</t>
   </si>
+  <si>
+    <t>replica</t>
+  </si>
+  <si>
+    <t>A663</t>
+  </si>
+  <si>
+    <t>A630</t>
+  </si>
+  <si>
+    <t>clorofila a</t>
+  </si>
+  <si>
+    <r>
+      <t>clorofila c</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>clorofila a+c</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>peso tentaculo (mg)</t>
+  </si>
+  <si>
+    <t>volumen acetona (ml)</t>
+  </si>
+  <si>
+    <t>A663 corregida</t>
+  </si>
+  <si>
+    <t>A630 corregida</t>
+  </si>
 </sst>
 </file>
 
@@ -274,9 +331,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="173" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,6 +350,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -342,7 +407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -364,7 +429,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,7 +474,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Datos iniciales Anemonas.xlsx]Pesos inicial y final!TablaDinámica1</c:name>
+    <c:name>[Datos TFM Alberto.xlsx]Pesos inicial y final!TablaDinámica1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -426,47 +494,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="1"/>
@@ -482,47 +509,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -3616,17 +3602,17 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.90625" customWidth="1"/>
-    <col min="4" max="4" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.26953125" customWidth="1"/>
-    <col min="8" max="8" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3643,7 +3629,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>207</v>
       </c>
@@ -3657,7 +3643,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>208</v>
       </c>
@@ -3680,7 +3666,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>209</v>
       </c>
@@ -3703,7 +3689,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>210</v>
       </c>
@@ -3726,7 +3712,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>211</v>
       </c>
@@ -3749,7 +3735,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>212</v>
       </c>
@@ -3772,7 +3758,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>213</v>
       </c>
@@ -3795,7 +3781,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>214</v>
       </c>
@@ -3809,7 +3795,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>215</v>
       </c>
@@ -3824,7 +3810,7 @@
       </c>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>216</v>
       </c>
@@ -3838,7 +3824,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>217</v>
       </c>
@@ -3852,7 +3838,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>218</v>
       </c>
@@ -3866,7 +3852,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>219</v>
       </c>
@@ -3880,7 +3866,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>220</v>
       </c>
@@ -3894,7 +3880,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>221</v>
       </c>
@@ -3908,7 +3894,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>222</v>
       </c>
@@ -3922,7 +3908,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>223</v>
       </c>
@@ -3936,7 +3922,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>224</v>
       </c>
@@ -3950,7 +3936,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>225</v>
       </c>
@@ -3964,7 +3950,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>226</v>
       </c>
@@ -3978,7 +3964,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>227</v>
       </c>
@@ -3992,7 +3978,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>228</v>
       </c>
@@ -4006,7 +3992,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>229</v>
       </c>
@@ -4020,7 +4006,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>230</v>
       </c>
@@ -4034,7 +4020,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>231</v>
       </c>
@@ -4048,7 +4034,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>232</v>
       </c>
@@ -4062,7 +4048,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>233</v>
       </c>
@@ -4076,7 +4062,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>234</v>
       </c>
@@ -4090,7 +4076,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>235</v>
       </c>
@@ -4104,7 +4090,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>236</v>
       </c>
@@ -4118,7 +4104,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>237</v>
       </c>
@@ -4132,7 +4118,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>238</v>
       </c>
@@ -4146,7 +4132,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>239</v>
       </c>
@@ -4160,7 +4146,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>240</v>
       </c>
@@ -4174,7 +4160,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>241</v>
       </c>
@@ -4188,7 +4174,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>242</v>
       </c>
@@ -4202,7 +4188,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>243</v>
       </c>
@@ -4216,7 +4202,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>244</v>
       </c>
@@ -4230,7 +4216,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>245</v>
       </c>
@@ -4244,7 +4230,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>246</v>
       </c>
@@ -4258,7 +4244,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>247</v>
       </c>
@@ -4272,7 +4258,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>248</v>
       </c>
@@ -4286,7 +4272,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>249</v>
       </c>
@@ -4300,7 +4286,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>250</v>
       </c>
@@ -4314,7 +4300,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>251</v>
       </c>
@@ -4328,7 +4314,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>252</v>
       </c>
@@ -4342,7 +4328,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>253</v>
       </c>
@@ -4356,7 +4342,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>254</v>
       </c>
@@ -4370,7 +4356,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>255</v>
       </c>
@@ -4384,7 +4370,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>256</v>
       </c>
@@ -4398,7 +4384,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>257</v>
       </c>
@@ -4412,7 +4398,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>258</v>
       </c>
@@ -4426,7 +4412,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>259</v>
       </c>
@@ -4440,7 +4426,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>260</v>
       </c>
@@ -4454,7 +4440,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>261</v>
       </c>
@@ -4468,7 +4454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>262</v>
       </c>
@@ -4482,7 +4468,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>263</v>
       </c>
@@ -4496,7 +4482,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>264</v>
       </c>
@@ -4510,7 +4496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>265</v>
       </c>
@@ -4524,7 +4510,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>266</v>
       </c>
@@ -4538,7 +4524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>267</v>
       </c>
@@ -4552,7 +4538,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>268</v>
       </c>
@@ -4566,7 +4552,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1</v>
       </c>
@@ -4580,7 +4566,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2</v>
       </c>
@@ -4594,7 +4580,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>3</v>
       </c>
@@ -4608,7 +4594,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>4</v>
       </c>
@@ -4622,7 +4608,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>5</v>
       </c>
@@ -4636,7 +4622,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>6</v>
       </c>
@@ -4650,7 +4636,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>7</v>
       </c>
@@ -4664,7 +4650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>8</v>
       </c>
@@ -4678,7 +4664,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>9</v>
       </c>
@@ -4692,7 +4678,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>10</v>
       </c>
@@ -4706,7 +4692,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>11</v>
       </c>
@@ -4720,7 +4706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>12</v>
       </c>
@@ -4734,7 +4720,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>13</v>
       </c>
@@ -4748,7 +4734,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>14</v>
       </c>
@@ -4762,7 +4748,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>15</v>
       </c>
@@ -4776,7 +4762,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>16</v>
       </c>
@@ -4790,7 +4776,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>17</v>
       </c>
@@ -4804,7 +4790,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>18</v>
       </c>
@@ -4818,7 +4804,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>19</v>
       </c>
@@ -4832,7 +4818,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>20</v>
       </c>
@@ -4846,7 +4832,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>21</v>
       </c>
@@ -4860,7 +4846,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>22</v>
       </c>
@@ -4874,7 +4860,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>42</v>
       </c>
@@ -4888,7 +4874,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>43</v>
       </c>
@@ -4902,7 +4888,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>44</v>
       </c>
@@ -4916,7 +4902,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>45</v>
       </c>
@@ -4930,7 +4916,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>46</v>
       </c>
@@ -4944,7 +4930,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>47</v>
       </c>
@@ -4958,7 +4944,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>48</v>
       </c>
@@ -4972,7 +4958,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>49</v>
       </c>
@@ -4986,7 +4972,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>50</v>
       </c>
@@ -5000,7 +4986,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>51</v>
       </c>
@@ -5014,7 +5000,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>52</v>
       </c>
@@ -5028,7 +5014,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>53</v>
       </c>
@@ -5042,7 +5028,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>54</v>
       </c>
@@ -5056,7 +5042,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>55</v>
       </c>
@@ -5070,7 +5056,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>56</v>
       </c>
@@ -5084,7 +5070,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>57</v>
       </c>
@@ -5098,7 +5084,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>58</v>
       </c>
@@ -5112,7 +5098,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>59</v>
       </c>
@@ -5126,7 +5112,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>75</v>
       </c>
@@ -5140,7 +5126,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>76</v>
       </c>
@@ -5154,7 +5140,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>77</v>
       </c>
@@ -5168,7 +5154,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>78</v>
       </c>
@@ -5182,7 +5168,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>79</v>
       </c>
@@ -5196,7 +5182,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>80</v>
       </c>
@@ -5210,7 +5196,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>81</v>
       </c>
@@ -5224,7 +5210,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>82</v>
       </c>
@@ -5238,7 +5224,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>83</v>
       </c>
@@ -5252,7 +5238,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>84</v>
       </c>
@@ -5266,7 +5252,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>85</v>
       </c>
@@ -5280,7 +5266,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>86</v>
       </c>
@@ -5294,7 +5280,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>87</v>
       </c>
@@ -5308,7 +5294,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>88</v>
       </c>
@@ -5322,7 +5308,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>89</v>
       </c>
@@ -5336,7 +5322,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>90</v>
       </c>
@@ -5350,7 +5336,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>91</v>
       </c>
@@ -5364,7 +5350,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>92</v>
       </c>
@@ -5378,7 +5364,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>93</v>
       </c>
@@ -5392,7 +5378,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>94</v>
       </c>
@@ -5406,7 +5392,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>117</v>
       </c>
@@ -5420,7 +5406,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>118</v>
       </c>
@@ -5434,7 +5420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>119</v>
       </c>
@@ -5448,7 +5434,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>120</v>
       </c>
@@ -5462,7 +5448,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>121</v>
       </c>
@@ -5476,7 +5462,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>122</v>
       </c>
@@ -5490,7 +5476,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>123</v>
       </c>
@@ -5504,7 +5490,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>124</v>
       </c>
@@ -5518,7 +5504,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>125</v>
       </c>
@@ -5532,7 +5518,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>126</v>
       </c>
@@ -5546,7 +5532,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>127</v>
       </c>
@@ -5560,7 +5546,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>142</v>
       </c>
@@ -5574,7 +5560,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>143</v>
       </c>
@@ -5588,7 +5574,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>144</v>
       </c>
@@ -5602,7 +5588,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>145</v>
       </c>
@@ -5616,7 +5602,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>146</v>
       </c>
@@ -5630,7 +5616,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>147</v>
       </c>
@@ -5644,7 +5630,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>148</v>
       </c>
@@ -5658,7 +5644,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>149</v>
       </c>
@@ -5672,7 +5658,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>150</v>
       </c>
@@ -5686,7 +5672,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>151</v>
       </c>
@@ -5700,7 +5686,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>152</v>
       </c>
@@ -5714,7 +5700,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>153</v>
       </c>
@@ -5728,7 +5714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>154</v>
       </c>
@@ -5742,7 +5728,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>155</v>
       </c>
@@ -5756,7 +5742,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>156</v>
       </c>
@@ -5770,7 +5756,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>157</v>
       </c>
@@ -5784,7 +5770,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>158</v>
       </c>
@@ -5798,7 +5784,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>159</v>
       </c>
@@ -5812,7 +5798,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>160</v>
       </c>
@@ -5826,7 +5812,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>161</v>
       </c>
@@ -5840,7 +5826,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>162</v>
       </c>
@@ -5854,7 +5840,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>163</v>
       </c>
@@ -5868,7 +5854,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>164</v>
       </c>
@@ -5882,7 +5868,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>165</v>
       </c>
@@ -5896,7 +5882,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>166</v>
       </c>
@@ -5910,7 +5896,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>167</v>
       </c>
@@ -5924,7 +5910,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>168</v>
       </c>
@@ -5938,7 +5924,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>169</v>
       </c>
@@ -5952,7 +5938,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>170</v>
       </c>
@@ -5966,7 +5952,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>171</v>
       </c>
@@ -5980,7 +5966,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>172</v>
       </c>
@@ -5994,7 +5980,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>173</v>
       </c>
@@ -6008,7 +5994,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>174</v>
       </c>
@@ -6022,7 +6008,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>175</v>
       </c>
@@ -6036,7 +6022,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>176</v>
       </c>
@@ -6050,7 +6036,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>177</v>
       </c>
@@ -6064,7 +6050,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>178</v>
       </c>
@@ -6078,7 +6064,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>179</v>
       </c>
@@ -6092,7 +6078,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>180</v>
       </c>
@@ -6106,7 +6092,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>181</v>
       </c>
@@ -6120,7 +6106,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>182</v>
       </c>
@@ -6134,7 +6120,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>183</v>
       </c>
@@ -6148,7 +6134,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>184</v>
       </c>
@@ -6162,7 +6148,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>185</v>
       </c>
@@ -6176,7 +6162,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>186</v>
       </c>
@@ -6190,7 +6176,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>187</v>
       </c>
@@ -6204,7 +6190,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>188</v>
       </c>
@@ -6218,7 +6204,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>189</v>
       </c>
@@ -6232,7 +6218,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>190</v>
       </c>
@@ -6246,7 +6232,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>191</v>
       </c>
@@ -6260,7 +6246,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>192</v>
       </c>
@@ -6274,7 +6260,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>193</v>
       </c>
@@ -6288,7 +6274,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>194</v>
       </c>
@@ -6302,7 +6288,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>195</v>
       </c>
@@ -6316,7 +6302,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>196</v>
       </c>
@@ -6330,7 +6316,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>197</v>
       </c>
@@ -6344,7 +6330,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>198</v>
       </c>
@@ -6358,7 +6344,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>199</v>
       </c>
@@ -6372,7 +6358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>200</v>
       </c>
@@ -6386,7 +6372,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>201</v>
       </c>
@@ -6400,7 +6386,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>202</v>
       </c>
@@ -6414,7 +6400,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>203</v>
       </c>
@@ -6428,7 +6414,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>204</v>
       </c>
@@ -6442,7 +6428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>205</v>
       </c>
@@ -6456,7 +6442,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>206</v>
       </c>
@@ -6470,7 +6456,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>23</v>
       </c>
@@ -6484,7 +6470,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>24</v>
       </c>
@@ -6498,7 +6484,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>25</v>
       </c>
@@ -6512,7 +6498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>26</v>
       </c>
@@ -6526,7 +6512,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>27</v>
       </c>
@@ -6540,7 +6526,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>28</v>
       </c>
@@ -6554,7 +6540,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>29</v>
       </c>
@@ -6568,7 +6554,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>30</v>
       </c>
@@ -6582,7 +6568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>31</v>
       </c>
@@ -6596,7 +6582,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>32</v>
       </c>
@@ -6610,7 +6596,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>33</v>
       </c>
@@ -6624,7 +6610,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>34</v>
       </c>
@@ -6638,7 +6624,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>35</v>
       </c>
@@ -6652,7 +6638,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>36</v>
       </c>
@@ -6666,7 +6652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>37</v>
       </c>
@@ -6680,7 +6666,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>38</v>
       </c>
@@ -6694,7 +6680,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>39</v>
       </c>
@@ -6708,7 +6694,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>40</v>
       </c>
@@ -6722,7 +6708,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>41</v>
       </c>
@@ -6736,7 +6722,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>60</v>
       </c>
@@ -6750,7 +6736,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>61</v>
       </c>
@@ -6764,7 +6750,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>62</v>
       </c>
@@ -6778,7 +6764,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>63</v>
       </c>
@@ -6792,7 +6778,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>64</v>
       </c>
@@ -6806,7 +6792,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>65</v>
       </c>
@@ -6820,7 +6806,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>66</v>
       </c>
@@ -6834,7 +6820,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>67</v>
       </c>
@@ -6848,7 +6834,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>68</v>
       </c>
@@ -6862,7 +6848,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>69</v>
       </c>
@@ -6876,7 +6862,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>70</v>
       </c>
@@ -6890,7 +6876,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>71</v>
       </c>
@@ -6904,7 +6890,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>72</v>
       </c>
@@ -6918,7 +6904,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>73</v>
       </c>
@@ -6932,7 +6918,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>74</v>
       </c>
@@ -6946,7 +6932,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>95</v>
       </c>
@@ -6960,7 +6946,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>96</v>
       </c>
@@ -6974,7 +6960,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>97</v>
       </c>
@@ -6988,7 +6974,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>98</v>
       </c>
@@ -7002,7 +6988,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>99</v>
       </c>
@@ -7016,7 +7002,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>100</v>
       </c>
@@ -7030,7 +7016,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>101</v>
       </c>
@@ -7044,7 +7030,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>102</v>
       </c>
@@ -7058,7 +7044,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>103</v>
       </c>
@@ -7072,7 +7058,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>104</v>
       </c>
@@ -7086,7 +7072,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>105</v>
       </c>
@@ -7100,7 +7086,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>106</v>
       </c>
@@ -7114,7 +7100,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>107</v>
       </c>
@@ -7128,7 +7114,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>108</v>
       </c>
@@ -7142,7 +7128,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>109</v>
       </c>
@@ -7156,7 +7142,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>110</v>
       </c>
@@ -7170,7 +7156,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>111</v>
       </c>
@@ -7184,7 +7170,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>112</v>
       </c>
@@ -7198,7 +7184,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>113</v>
       </c>
@@ -7212,7 +7198,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>114</v>
       </c>
@@ -7226,7 +7212,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>115</v>
       </c>
@@ -7240,7 +7226,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>116</v>
       </c>
@@ -7254,7 +7240,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>128</v>
       </c>
@@ -7268,7 +7254,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>129</v>
       </c>
@@ -7282,7 +7268,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>130</v>
       </c>
@@ -7296,7 +7282,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>131</v>
       </c>
@@ -7310,7 +7296,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>132</v>
       </c>
@@ -7324,7 +7310,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>133</v>
       </c>
@@ -7338,7 +7324,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>134</v>
       </c>
@@ -7352,7 +7338,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>135</v>
       </c>
@@ -7366,7 +7352,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>136</v>
       </c>
@@ -7380,7 +7366,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>137</v>
       </c>
@@ -7394,7 +7380,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>138</v>
       </c>
@@ -7408,7 +7394,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>139</v>
       </c>
@@ -7422,7 +7408,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>140</v>
       </c>
@@ -7436,7 +7422,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>141</v>
       </c>
@@ -7451,7 +7437,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D269">
+  <sortState ref="A2:D269">
     <sortCondition ref="B2:B269"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7461,24 +7447,647 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE67BA9A-2EB6-4097-8E11-0DDFC0D19E32}">
+  <dimension ref="A1:K41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>108.5</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>102.5</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>102.5</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>109.9</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>98.2</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>106.4</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>86.9</v>
+      </c>
+      <c r="D8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>93</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>97</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>99.7</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>106.7</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>102</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>106.7</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>103.5</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>107.8</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>102</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>101.8</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>103.1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>108</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>108.6</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>102.3</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>103.5</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>102.2</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>99.5</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>106.6</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>99.9</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>107</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>106.6</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>96.2</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>101.7</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>103.1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>108.8</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>108.3</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>104.6</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>102.7</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>108.4</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>109.4</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>103.6</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>102.6</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>104.2</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3469014-AB43-4CF6-BE55-C2AB33CB827F}">
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="18" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="18" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -7537,7 +8146,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -7552,66 +8161,66 @@
       </c>
       <c r="E2" s="11">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="F2" s="11">
         <f t="shared" ref="F2:S17" ca="1" si="0">RANDBETWEEN(0,100)</f>
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G2" s="11">
         <f t="shared" ca="1" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="H2" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="I2" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="J2" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="K2" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="L2" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="M2" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="N2" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="O2" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="P2" s="11">
+        <f t="shared" ca="1" si="0"/>
         <v>58</v>
       </c>
-      <c r="H2" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>74</v>
-      </c>
-      <c r="I2" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>87</v>
-      </c>
-      <c r="J2" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="K2" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>83</v>
-      </c>
-      <c r="L2" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="M2" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="N2" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="O2" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="P2" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>37</v>
-      </c>
       <c r="Q2" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="R2" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="S2" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -7625,67 +8234,67 @@
         <v>20</v>
       </c>
       <c r="E3" s="11">
-        <f t="shared" ref="E3:S41" ca="1" si="1">RANDBETWEEN(0,100)</f>
-        <v>47</v>
+        <f t="shared" ref="E3:S33" ca="1" si="1">RANDBETWEEN(0,100)</f>
+        <v>53</v>
       </c>
       <c r="F3" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="G3" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="H3" s="11">
         <f t="shared" ca="1" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="I3" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="J3" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="K3" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="L3" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="M3" s="11">
+        <f t="shared" ca="1" si="0"/>
         <v>91</v>
       </c>
-      <c r="I3" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>67</v>
-      </c>
-      <c r="J3" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="K3" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="L3" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="M3" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>93</v>
-      </c>
       <c r="N3" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O3" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="P3" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="Q3" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="R3" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="S3" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -7700,66 +8309,66 @@
       </c>
       <c r="E4" s="11">
         <f t="shared" ca="1" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="F4" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="G4" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>97</v>
+      </c>
+      <c r="H4" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="I4" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="J4" s="11">
+        <f t="shared" ca="1" si="0"/>
         <v>85</v>
       </c>
-      <c r="F4" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="G4" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>92</v>
-      </c>
-      <c r="H4" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="I4" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="J4" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>50</v>
-      </c>
       <c r="K4" s="11">
         <f t="shared" ca="1" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="L4" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M4" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="N4" s="11">
+        <f t="shared" ca="1" si="0"/>
         <v>14</v>
       </c>
-      <c r="L4" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="M4" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="N4" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>86</v>
-      </c>
       <c r="O4" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="P4" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="Q4" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="R4" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="S4" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -7774,23 +8383,23 @@
       </c>
       <c r="E5" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="F5" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="G5" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="H5" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="I5" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="J5" s="11">
         <f t="shared" ca="1" si="0"/>
@@ -7798,31 +8407,31 @@
       </c>
       <c r="K5" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="L5" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="M5" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="N5" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="O5" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="P5" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="Q5" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="R5" s="11">
         <f t="shared" ca="1" si="0"/>
@@ -7830,10 +8439,10 @@
       </c>
       <c r="S5" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -7848,66 +8457,66 @@
       </c>
       <c r="E6" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="F6" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="G6" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="H6" s="11">
         <f t="shared" ca="1" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="I6" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="J6" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="K6" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="L6" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="M6" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="N6" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="O6" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="P6" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="Q6" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="R6" s="11">
+        <f t="shared" ca="1" si="0"/>
         <v>38</v>
       </c>
-      <c r="I6" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="J6" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>92</v>
-      </c>
-      <c r="K6" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>98</v>
-      </c>
-      <c r="L6" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>78</v>
-      </c>
-      <c r="M6" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="N6" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O6" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="P6" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="Q6" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>87</v>
-      </c>
-      <c r="R6" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>42</v>
-      </c>
       <c r="S6" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -7922,66 +8531,66 @@
       </c>
       <c r="E7" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F7" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G7" s="11">
         <f t="shared" ca="1" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="H7" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="I7" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="J7" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="K7" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="L7" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="M7" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="O7" s="11">
+        <f t="shared" ca="1" si="0"/>
         <v>82</v>
       </c>
-      <c r="H7" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="I7" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="J7" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="K7" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>95</v>
-      </c>
-      <c r="L7" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="M7" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="N7" s="11">
+      <c r="P7" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="Q7" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="R7" s="11">
         <f t="shared" ca="1" si="0"/>
         <v>94</v>
       </c>
-      <c r="O7" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="P7" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="Q7" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="R7" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>24</v>
-      </c>
       <c r="S7" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -7996,66 +8605,66 @@
       </c>
       <c r="E8" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="F8" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G8" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="H8" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="I8" s="11">
         <f t="shared" ca="1" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="J8" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="K8" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L8" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M8" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="N8" s="11">
+        <f t="shared" ca="1" si="0"/>
         <v>26</v>
       </c>
-      <c r="J8" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="K8" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="L8" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="M8" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="N8" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>48</v>
-      </c>
       <c r="O8" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="P8" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="Q8" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="R8" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="S8" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -8070,66 +8679,66 @@
       </c>
       <c r="E9" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F9" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="G9" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="H9" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="J9" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="K9" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="L9" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="M9" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="N9" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="O9" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="P9" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Q9" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="R9" s="11">
         <f t="shared" ca="1" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="S9" s="11">
+        <f t="shared" ca="1" si="0"/>
         <v>68</v>
       </c>
-      <c r="S9" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -8144,66 +8753,66 @@
       </c>
       <c r="E10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="F10" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="G10" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="H10" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="J10" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="K10" s="11">
         <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L10" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="M10" s="11">
+        <f t="shared" ca="1" si="0"/>
         <v>10</v>
       </c>
-      <c r="L10" s="11">
+      <c r="N10" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O10" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="P10" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="Q10" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="R10" s="11">
         <f t="shared" ca="1" si="0"/>
         <v>91</v>
       </c>
-      <c r="M10" s="11">
+      <c r="S10" s="11">
         <f t="shared" ca="1" si="0"/>
         <v>97</v>
       </c>
-      <c r="N10" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="O10" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="P10" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="Q10" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="R10" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="S10" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -8218,39 +8827,39 @@
       </c>
       <c r="E11" s="11">
         <f t="shared" ca="1" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="F11" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="G11" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H11" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="I11" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="J11" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="K11" s="11">
+        <f t="shared" ca="1" si="0"/>
         <v>42</v>
       </c>
-      <c r="F11" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>88</v>
-      </c>
-      <c r="G11" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="H11" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="I11" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="J11" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="K11" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>55</v>
-      </c>
       <c r="L11" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="M11" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="N11" s="11">
         <f t="shared" ca="1" si="0"/>
@@ -8258,26 +8867,26 @@
       </c>
       <c r="O11" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="P11" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="R11" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="S11" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -8292,66 +8901,66 @@
       </c>
       <c r="E12" s="11">
         <f t="shared" ca="1" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="F12" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="G12" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="H12" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="I12" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="J12" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K12" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="L12" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="M12" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="N12" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="O12" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="P12" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="Q12" s="11">
+        <f t="shared" ca="1" si="0"/>
         <v>69</v>
       </c>
-      <c r="F12" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="G12" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="H12" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="I12" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="J12" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="K12" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="L12" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="M12" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>99</v>
-      </c>
-      <c r="N12" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="O12" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>91</v>
-      </c>
-      <c r="P12" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="Q12" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>29</v>
-      </c>
       <c r="R12" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="S12" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -8366,66 +8975,66 @@
       </c>
       <c r="E13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="F13" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="G13" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="H13" s="11">
         <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I13" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="J13" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="K13" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="L13" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="M13" s="11">
+        <f t="shared" ca="1" si="0"/>
         <v>21</v>
       </c>
-      <c r="I13" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="J13" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>81</v>
-      </c>
-      <c r="K13" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="L13" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>93</v>
-      </c>
-      <c r="M13" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
       <c r="N13" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="O13" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="P13" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="Q13" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="R13" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="S13" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -8440,66 +9049,66 @@
       </c>
       <c r="E14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="F14" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="G14" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H14" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="J14" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="K14" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="L14" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="M14" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="N14" s="11">
         <f t="shared" ca="1" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="O14" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="P14" s="11">
+        <f t="shared" ca="1" si="0"/>
         <v>64</v>
       </c>
-      <c r="O14" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="P14" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>22</v>
-      </c>
       <c r="Q14" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="R14" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="S14" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -8514,66 +9123,66 @@
       </c>
       <c r="E15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F15" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="G15" s="11">
         <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="H15" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="I15" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="J15" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="K15" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L15" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="M15" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="N15" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="O15" s="11">
+        <f t="shared" ca="1" si="0"/>
         <v>7</v>
       </c>
-      <c r="H15" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="I15" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J15" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="K15" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="L15" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>96</v>
-      </c>
-      <c r="M15" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N15" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="O15" s="11">
+      <c r="P15" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="Q15" s="11">
         <f t="shared" ca="1" si="0"/>
         <v>16</v>
       </c>
-      <c r="P15" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="Q15" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>45</v>
-      </c>
       <c r="R15" s="11">
         <f t="shared" ca="1" si="0"/>
         <v>43</v>
       </c>
       <c r="S15" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -8588,66 +9197,66 @@
       </c>
       <c r="E16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F16" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="G16" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="H16" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="J16" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K16" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="L16" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="M16" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="N16" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="O16" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="P16" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="Q16" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="R16" s="11">
         <f t="shared" ca="1" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="S16" s="11">
+        <f t="shared" ca="1" si="0"/>
         <v>95</v>
       </c>
-      <c r="S16" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -8662,66 +9271,66 @@
       </c>
       <c r="E17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="F17" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="G17" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="H17" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J17" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="K17" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="L17" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="M17" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="N17" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="O17" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="P17" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="R17" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="S17" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -8736,66 +9345,66 @@
       </c>
       <c r="E18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="F18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="G18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="H18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="J18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="K18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="M18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="N18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="O18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="P18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="Q18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="R18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="S18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -8810,66 +9419,66 @@
       </c>
       <c r="E19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="H19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="K19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="L19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="M19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="N19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="O19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="P19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="Q19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="R19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="S19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -8884,66 +9493,66 @@
       </c>
       <c r="E20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="F20" s="11">
         <f t="shared" ca="1" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="G20" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="H20" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="I20" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="J20" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="K20" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="L20" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="M20" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="N20" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="O20" s="11">
+        <f t="shared" ca="1" si="1"/>
         <v>13</v>
       </c>
-      <c r="G20" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H20" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="I20" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="J20" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>56</v>
-      </c>
-      <c r="K20" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>85</v>
-      </c>
-      <c r="L20" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>62</v>
-      </c>
-      <c r="M20" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>77</v>
-      </c>
-      <c r="N20" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>54</v>
-      </c>
-      <c r="O20" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>64</v>
-      </c>
       <c r="P20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="Q20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="R20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="S20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -8958,66 +9567,66 @@
       </c>
       <c r="E21" s="11">
         <f t="shared" ca="1" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="F21" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="G21" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="H21" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="I21" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="J21" s="11">
+        <f t="shared" ca="1" si="1"/>
         <v>18</v>
       </c>
-      <c r="F21" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>88</v>
-      </c>
-      <c r="G21" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>78</v>
-      </c>
-      <c r="H21" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>63</v>
-      </c>
-      <c r="I21" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="J21" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>67</v>
-      </c>
       <c r="K21" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="L21" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M21" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="N21" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="O21" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="P21" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="Q21" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="R21" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="S21" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -9032,66 +9641,66 @@
       </c>
       <c r="E22" s="11">
         <f t="shared" ca="1" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="F22" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="G22" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="H22" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="I22" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J22" s="11">
+        <f t="shared" ca="1" si="1"/>
         <v>65</v>
       </c>
-      <c r="F22" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="G22" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>82</v>
-      </c>
-      <c r="H22" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="I22" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="J22" s="11">
+      <c r="K22" s="11">
         <f t="shared" ca="1" si="1"/>
         <v>90</v>
       </c>
-      <c r="K22" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>18</v>
-      </c>
       <c r="L22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="N22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="O22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="P22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="Q22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="R22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="S22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -9106,66 +9715,66 @@
       </c>
       <c r="E23" s="11">
         <f t="shared" ca="1" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="F23" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="G23" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="H23" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="I23" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="J23" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="K23" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="L23" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="M23" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="N23" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="O23" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="P23" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="Q23" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="R23" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="S23" s="11">
+        <f t="shared" ca="1" si="1"/>
         <v>25</v>
       </c>
-      <c r="F23" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>51</v>
-      </c>
-      <c r="G23" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>81</v>
-      </c>
-      <c r="H23" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="I23" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>85</v>
-      </c>
-      <c r="J23" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>73</v>
-      </c>
-      <c r="K23" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="L23" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>69</v>
-      </c>
-      <c r="M23" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="N23" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>86</v>
-      </c>
-      <c r="O23" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>96</v>
-      </c>
-      <c r="P23" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>78</v>
-      </c>
-      <c r="R23" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="S23" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -9180,66 +9789,66 @@
       </c>
       <c r="E24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="G24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="J24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="M24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="N24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="O24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="P24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="Q24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="R24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="S24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -9254,66 +9863,66 @@
       </c>
       <c r="E25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="F25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="H25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="J25" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="K25" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="L25" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="M25" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="N25" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="O25" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="P25" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="Q25" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="R25" s="11">
+        <f t="shared" ca="1" si="1"/>
         <v>22</v>
       </c>
-      <c r="J25" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>64</v>
-      </c>
-      <c r="K25" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>56</v>
-      </c>
-      <c r="L25" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="M25" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>77</v>
-      </c>
-      <c r="N25" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>79</v>
-      </c>
-      <c r="O25" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>64</v>
-      </c>
-      <c r="P25" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>83</v>
-      </c>
-      <c r="Q25" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="R25" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>91</v>
-      </c>
       <c r="S25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -9328,66 +9937,66 @@
       </c>
       <c r="E26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="G26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="H26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="J26" s="11">
         <f t="shared" ca="1" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="K26" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="L26" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="M26" s="11">
+        <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
-      <c r="K26" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="L26" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="M26" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>69</v>
-      </c>
       <c r="N26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="O26" s="11">
         <f t="shared" ca="1" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="P26" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="Q26" s="11">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="P26" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="Q26" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>70</v>
-      </c>
       <c r="R26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="S26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -9402,66 +10011,66 @@
       </c>
       <c r="E27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="F27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="G27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="H27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="L27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="M27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="N27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="O27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="P27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="Q27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="R27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="S27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -9476,66 +10085,66 @@
       </c>
       <c r="E28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="F28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="G28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="H28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="J28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="K28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="L28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="M28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="N28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="O28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="P28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="Q28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="R28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="S28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -9550,66 +10159,66 @@
       </c>
       <c r="E29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="G29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="H29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="J29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="L29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="M29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="N29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="O29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="P29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="Q29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="R29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="S29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -9624,66 +10233,66 @@
       </c>
       <c r="E30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="F30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G30" s="11">
         <f t="shared" ca="1" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="H30" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="I30" s="11">
+        <f t="shared" ca="1" si="1"/>
         <v>92</v>
       </c>
-      <c r="H30" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>54</v>
-      </c>
-      <c r="I30" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>68</v>
-      </c>
       <c r="J30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="K30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="L30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="M30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="N30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="P30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Q30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="R30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="S30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -9698,27 +10307,27 @@
       </c>
       <c r="E31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="F31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="G31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="H31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="J31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="K31" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -9726,38 +10335,38 @@
       </c>
       <c r="L31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="M31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="N31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="O31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>7</v>
       </c>
       <c r="P31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="Q31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="R31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="S31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -9772,66 +10381,66 @@
       </c>
       <c r="E32" s="11">
         <f t="shared" ca="1" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="F32" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="G32" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="H32" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="I32" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="J32" s="11">
+        <f t="shared" ca="1" si="1"/>
         <v>9</v>
       </c>
-      <c r="F32" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="G32" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="H32" s="11">
+      <c r="K32" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="L32" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="M32" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="N32" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="O32" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="P32" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="Q32" s="11">
         <f t="shared" ca="1" si="1"/>
         <v>48</v>
       </c>
-      <c r="I32" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="J32" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="K32" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="L32" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>97</v>
-      </c>
-      <c r="M32" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="N32" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>51</v>
-      </c>
-      <c r="O32" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="P32" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>59</v>
-      </c>
-      <c r="Q32" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>40</v>
-      </c>
       <c r="R32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="S32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -9846,66 +10455,66 @@
       </c>
       <c r="E33" s="11">
         <f t="shared" ca="1" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="F33" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="G33" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="H33" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="I33" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="J33" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="K33" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="L33" s="11">
+        <f t="shared" ca="1" si="1"/>
         <v>8</v>
       </c>
-      <c r="F33" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>91</v>
-      </c>
-      <c r="G33" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="H33" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>72</v>
-      </c>
-      <c r="I33" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>53</v>
-      </c>
-      <c r="J33" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>62</v>
-      </c>
-      <c r="K33" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>77</v>
-      </c>
-      <c r="L33" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>88</v>
-      </c>
       <c r="M33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="N33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="O33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="P33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="Q33" s="11">
         <f t="shared" ca="1" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="R33" s="11">
+        <f t="shared" ca="1" si="1"/>
         <v>78</v>
       </c>
-      <c r="R33" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>79</v>
-      </c>
       <c r="S33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -9920,66 +10529,66 @@
       </c>
       <c r="E34" s="11">
         <f t="shared" ref="E34:S41" ca="1" si="2">RANDBETWEEN(0,100)</f>
+        <v>76</v>
+      </c>
+      <c r="F34" s="11">
+        <f t="shared" ca="1" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="G34" s="11">
+        <f t="shared" ca="1" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="H34" s="11">
+        <f t="shared" ca="1" si="2"/>
         <v>95</v>
       </c>
-      <c r="F34" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="G34" s="11">
+      <c r="I34" s="11">
+        <f t="shared" ca="1" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="J34" s="11">
+        <f t="shared" ca="1" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="K34" s="11">
+        <f t="shared" ca="1" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="L34" s="11">
         <f t="shared" ca="1" si="2"/>
         <v>50</v>
       </c>
-      <c r="H34" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>46</v>
-      </c>
-      <c r="I34" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="J34" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>90</v>
-      </c>
-      <c r="K34" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>67</v>
-      </c>
-      <c r="L34" s="11">
+      <c r="M34" s="11">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="11">
+        <f t="shared" ca="1" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="O34" s="11">
+        <f t="shared" ca="1" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="P34" s="11">
+        <f t="shared" ca="1" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="Q34" s="11">
         <f t="shared" ca="1" si="2"/>
         <v>10</v>
       </c>
-      <c r="M34" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>29</v>
-      </c>
-      <c r="N34" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>37</v>
-      </c>
-      <c r="O34" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="P34" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>66</v>
-      </c>
-      <c r="Q34" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>54</v>
-      </c>
       <c r="R34" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="S34" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -9994,66 +10603,66 @@
       </c>
       <c r="E35" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="F35" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="G35" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="H35" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="I35" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="J35" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="K35" s="11">
         <f t="shared" ca="1" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="L35" s="11">
+        <f t="shared" ca="1" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="M35" s="11">
+        <f t="shared" ca="1" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="N35" s="11">
+        <f t="shared" ca="1" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="O35" s="11">
+        <f t="shared" ca="1" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="P35" s="11">
+        <f t="shared" ca="1" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="Q35" s="11">
+        <f t="shared" ca="1" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="R35" s="11">
+        <f t="shared" ca="1" si="2"/>
         <v>4</v>
       </c>
-      <c r="L35" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>80</v>
-      </c>
-      <c r="M35" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="N35" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>85</v>
-      </c>
-      <c r="O35" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P35" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="Q35" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="R35" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>31</v>
-      </c>
       <c r="S35" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -10068,66 +10677,66 @@
       </c>
       <c r="E36" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F36" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="G36" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H36" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="I36" s="11">
         <f t="shared" ca="1" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="J36" s="11">
+        <f t="shared" ca="1" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="K36" s="11">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="L36" s="11">
+        <f t="shared" ca="1" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="M36" s="11">
+        <f t="shared" ca="1" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="N36" s="11">
+        <f t="shared" ca="1" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="O36" s="11">
+        <f t="shared" ca="1" si="2"/>
         <v>95</v>
       </c>
-      <c r="J36" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="K36" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>95</v>
-      </c>
-      <c r="L36" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>66</v>
-      </c>
-      <c r="M36" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>94</v>
-      </c>
-      <c r="N36" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>44</v>
-      </c>
-      <c r="O36" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>75</v>
-      </c>
       <c r="P36" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q36" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="R36" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="S36" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -10142,66 +10751,66 @@
       </c>
       <c r="E37" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="F37" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="G37" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="H37" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <v>4</v>
       </c>
       <c r="I37" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="J37" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="K37" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="L37" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="M37" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="N37" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="O37" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="P37" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="Q37" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="R37" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="S37" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -10216,66 +10825,66 @@
       </c>
       <c r="E38" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="F38" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="G38" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="H38" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <v>2</v>
       </c>
       <c r="I38" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="J38" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="K38" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="L38" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="M38" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="N38" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="O38" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="P38" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q38" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="R38" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="S38" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -10290,66 +10899,66 @@
       </c>
       <c r="E39" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="F39" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G39" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H39" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="I39" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="J39" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K39" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="L39" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="M39" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="N39" s="11">
         <f t="shared" ca="1" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="O39" s="11">
+        <f t="shared" ca="1" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="P39" s="11">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q39" s="11">
+        <f t="shared" ca="1" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="R39" s="11">
+        <f t="shared" ca="1" si="2"/>
         <v>33</v>
       </c>
-      <c r="O39" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>44</v>
-      </c>
-      <c r="P39" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>59</v>
-      </c>
-      <c r="Q39" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="R39" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>81</v>
-      </c>
       <c r="S39" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>39</v>
       </c>
@@ -10364,66 +10973,66 @@
       </c>
       <c r="E40" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="F40" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="H40" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I40" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="J40" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="K40" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="L40" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="M40" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="N40" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="O40" s="11">
         <f t="shared" ca="1" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="P40" s="11">
+        <f t="shared" ca="1" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="Q40" s="11">
+        <f t="shared" ca="1" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="R40" s="11">
+        <f t="shared" ca="1" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="S40" s="11">
+        <f t="shared" ca="1" si="2"/>
         <v>6</v>
       </c>
-      <c r="P40" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>55</v>
-      </c>
-      <c r="Q40" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>45</v>
-      </c>
-      <c r="R40" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="S40" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>40</v>
       </c>
@@ -10438,63 +11047,63 @@
       </c>
       <c r="E41" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="F41" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="G41" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="H41" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="I41" s="11">
         <f t="shared" ca="1" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="J41" s="11">
+        <f t="shared" ca="1" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="K41" s="11">
+        <f t="shared" ca="1" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="L41" s="11">
+        <f t="shared" ca="1" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="M41" s="11">
+        <f t="shared" ca="1" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="N41" s="11">
+        <f t="shared" ca="1" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="O41" s="11">
+        <f t="shared" ca="1" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="P41" s="11">
+        <f t="shared" ca="1" si="2"/>
         <v>20</v>
       </c>
-      <c r="J41" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="K41" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>94</v>
-      </c>
-      <c r="L41" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="M41" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="N41" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>65</v>
-      </c>
-      <c r="O41" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>45</v>
-      </c>
-      <c r="P41" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>84</v>
-      </c>
       <c r="Q41" s="11">
         <f t="shared" ca="1" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="R41" s="11">
+        <f t="shared" ca="1" si="2"/>
         <v>22</v>
       </c>
-      <c r="R41" s="11">
-        <f t="shared" ca="1" si="2"/>
-        <v>97</v>
-      </c>
       <c r="S41" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>91</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/datos/Datos TFM Alberto.xlsx
+++ b/datos/Datos TFM Alberto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\collf\Documents\GitHub\TFM-Ortiguilla\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BDD4DDC-E149-4F91-9A29-7D0E6AAA347F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9EB66B-AEDC-4327-919A-11F78A61C2EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1CB412F8-9ABE-48C7-98C9-C1273AA5EDC5}"/>
   </bookViews>
@@ -842,7 +842,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -985,10 +985,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1039,12 +1039,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8523,7 +8524,7 @@
   <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="W21" sqref="A1:W21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8534,8 +8535,7 @@
     <col min="6" max="13" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="14" max="17" width="11.26953125" customWidth="1"/>
     <col min="18" max="20" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.81640625" customWidth="1"/>
+    <col min="21" max="22" width="11.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
@@ -8658,10 +8658,10 @@
         <v>8.6940000000000008</v>
       </c>
       <c r="V2">
+        <v>478.19999999999993</v>
+      </c>
+      <c r="W2">
         <v>260.2</v>
-      </c>
-      <c r="W2">
-        <v>478.19999999999993</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
@@ -8713,10 +8713,10 @@
         <v>8.4495000000000005</v>
       </c>
       <c r="V3">
+        <v>459.2</v>
+      </c>
+      <c r="W3">
         <v>323.2</v>
-      </c>
-      <c r="W3">
-        <v>459.2</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
@@ -8768,10 +8768,10 @@
         <v>7.6635</v>
       </c>
       <c r="V4">
+        <v>449.2</v>
+      </c>
+      <c r="W4">
         <v>463.2</v>
-      </c>
-      <c r="W4">
-        <v>449.2</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.35">
@@ -8823,10 +8823,10 @@
         <v>7.8285</v>
       </c>
       <c r="V5">
+        <v>403.2</v>
+      </c>
+      <c r="W5">
         <v>508.2</v>
-      </c>
-      <c r="W5">
-        <v>403.2</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.35">
@@ -8878,10 +8878,10 @@
         <v>7.74</v>
       </c>
       <c r="V6">
+        <v>403.2</v>
+      </c>
+      <c r="W6">
         <v>263.2</v>
-      </c>
-      <c r="W6">
-        <v>403.2</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.35">
@@ -8933,10 +8933,10 @@
         <v>8.5934999999999988</v>
       </c>
       <c r="V7">
+        <v>390.2</v>
+      </c>
+      <c r="W7">
         <v>483.19999999999993</v>
-      </c>
-      <c r="W7">
-        <v>390.2</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.35">
@@ -8988,10 +8988,10 @@
         <v>7.474499999999999</v>
       </c>
       <c r="V8">
+        <v>438.20000000000005</v>
+      </c>
+      <c r="W8">
         <v>274.2</v>
-      </c>
-      <c r="W8">
-        <v>438.20000000000005</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.35">
@@ -9007,12 +9007,12 @@
       <c r="D9">
         <v>19</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="74">
         <v>208.93784786641928</v>
       </c>
       <c r="F9" s="33"/>
       <c r="G9" s="33"/>
-      <c r="H9">
+      <c r="H9" s="74">
         <v>116.65609443726856</v>
       </c>
       <c r="I9">
@@ -9022,7 +9022,7 @@
       <c r="K9" s="33"/>
       <c r="L9" s="33"/>
       <c r="M9" s="33"/>
-      <c r="N9">
+      <c r="N9" s="74">
         <v>715.14712976362773</v>
       </c>
       <c r="O9">
@@ -9043,10 +9043,10 @@
         <v>6.5880000000000001</v>
       </c>
       <c r="V9">
+        <v>476.2</v>
+      </c>
+      <c r="W9">
         <v>274.2</v>
-      </c>
-      <c r="W9">
-        <v>476.2</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.35">
@@ -9080,7 +9080,7 @@
       <c r="N10">
         <v>276.49983735303687</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="74">
         <v>213.27172189241159</v>
       </c>
       <c r="P10" s="33"/>
@@ -9098,10 +9098,10 @@
         <v>7.9169999999999989</v>
       </c>
       <c r="V10">
+        <v>383.19999999999993</v>
+      </c>
+      <c r="W10">
         <v>502.20000000000005</v>
-      </c>
-      <c r="W10">
-        <v>383.19999999999993</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.35">
@@ -9153,10 +9153,10 @@
         <v>6.5939999999999994</v>
       </c>
       <c r="V11">
+        <v>453.2</v>
+      </c>
+      <c r="W11">
         <v>504.20000000000005</v>
-      </c>
-      <c r="W11">
-        <v>453.2</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.35">
@@ -9208,10 +9208,10 @@
         <v>8.6609999999999996</v>
       </c>
       <c r="V12">
+        <v>338.20000000000005</v>
+      </c>
+      <c r="W12">
         <v>215.19999999999993</v>
-      </c>
-      <c r="W12">
-        <v>338.20000000000005</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.35">
@@ -9263,10 +9263,10 @@
         <v>7.5735000000000001</v>
       </c>
       <c r="V13">
+        <v>301.19999999999993</v>
+      </c>
+      <c r="W13">
         <v>269.2</v>
-      </c>
-      <c r="W13">
-        <v>301.19999999999993</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.35">
@@ -9318,10 +9318,10 @@
         <v>7.8959999999999999</v>
       </c>
       <c r="V14">
+        <v>365.2</v>
+      </c>
+      <c r="W14">
         <v>499.2</v>
-      </c>
-      <c r="W14">
-        <v>365.2</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.35">
@@ -9373,10 +9373,10 @@
         <v>8.5724999999999998</v>
       </c>
       <c r="V15">
+        <v>372.2</v>
+      </c>
+      <c r="W15">
         <v>473.19999999999993</v>
-      </c>
-      <c r="W15">
-        <v>372.2</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.35">
@@ -9428,10 +9428,10 @@
         <v>8.1180000000000003</v>
       </c>
       <c r="V16">
+        <v>340.2</v>
+      </c>
+      <c r="W16">
         <v>378.19999999999993</v>
-      </c>
-      <c r="W16">
-        <v>340.2</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.35">
@@ -9452,7 +9452,7 @@
       </c>
       <c r="F17" s="33"/>
       <c r="G17" s="33"/>
-      <c r="H17">
+      <c r="H17" s="74">
         <v>110.46637472716887</v>
       </c>
       <c r="I17">
@@ -9483,10 +9483,10 @@
         <v>6.9990000000000006</v>
       </c>
       <c r="V17">
+        <v>420.20000000000005</v>
+      </c>
+      <c r="W17">
         <v>490.19999999999993</v>
-      </c>
-      <c r="W17">
-        <v>420.20000000000005</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.35">
@@ -9528,7 +9528,7 @@
       <c r="R18">
         <v>43.341451766953199</v>
       </c>
-      <c r="S18">
+      <c r="S18" s="74">
         <v>75.934574976122263</v>
       </c>
       <c r="T18">
@@ -9538,10 +9538,10 @@
         <v>6.5324999999999998</v>
       </c>
       <c r="V18">
+        <v>397.2</v>
+      </c>
+      <c r="W18">
         <v>442.20000000000005</v>
-      </c>
-      <c r="W18">
-        <v>397.2</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.35">
@@ -9593,10 +9593,10 @@
         <v>8.0730000000000004</v>
       </c>
       <c r="V19">
+        <v>366.20000000000005</v>
+      </c>
+      <c r="W19">
         <v>417.20000000000005</v>
-      </c>
-      <c r="W19">
-        <v>366.20000000000005</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.35">
@@ -9648,10 +9648,10 @@
         <v>7.1744999999999992</v>
       </c>
       <c r="V20">
+        <v>365.19999999999993</v>
+      </c>
+      <c r="W20">
         <v>423.2</v>
-      </c>
-      <c r="W20">
-        <v>365.19999999999993</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.35">
@@ -9675,7 +9675,7 @@
       <c r="H21">
         <v>74.095671718176504</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="74">
         <v>50.052624244975469</v>
       </c>
       <c r="J21" s="33"/>
@@ -9703,10 +9703,10 @@
         <v>5.5470000000000006</v>
       </c>
       <c r="V21">
+        <v>409.2</v>
+      </c>
+      <c r="W21">
         <v>340.2</v>
-      </c>
-      <c r="W21">
-        <v>409.2</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.35">
@@ -13575,7 +13575,7 @@
   <dimension ref="A1:W81"/>
   <sheetViews>
     <sheetView topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2:R41"/>
+      <selection activeCell="R16" sqref="R16:R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17441,8 +17441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D180DB6-3E30-40EF-BF18-C12BE3EB45CB}">
   <dimension ref="A1:W50"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25:Q26"/>
+    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q41" sqref="Q41:Q42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17467,16 +17467,16 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B1" s="14"/>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
       <c r="K1" s="51" t="s">
         <v>72</v>
       </c>
@@ -18465,13 +18465,13 @@
       </c>
       <c r="I25" s="53"/>
       <c r="J25" s="46"/>
-      <c r="K25" s="55">
+      <c r="K25" s="54">
         <v>3.1095000000000002</v>
       </c>
       <c r="L25" s="37">
         <v>-28.385000000000002</v>
       </c>
-      <c r="M25" s="55">
+      <c r="M25" s="54">
         <f t="shared" ref="M25" si="34">AVERAGE(L25:L26)</f>
         <v>-26.92</v>
       </c>
@@ -18509,11 +18509,11 @@
       <c r="H26" s="53"/>
       <c r="I26" s="53"/>
       <c r="J26" s="46"/>
-      <c r="K26" s="55"/>
+      <c r="K26" s="54"/>
       <c r="L26" s="37">
         <v>-25.454999999999998</v>
       </c>
-      <c r="M26" s="55"/>
+      <c r="M26" s="54"/>
       <c r="N26" s="56"/>
       <c r="O26" s="57"/>
       <c r="P26" s="57"/>
@@ -19517,13 +19517,13 @@
       <c r="A49" s="8">
         <v>20</v>
       </c>
-      <c r="B49" s="55">
+      <c r="B49" s="54">
         <v>5.5470000000000006</v>
       </c>
       <c r="C49" s="37">
         <v>-20.824000000000002</v>
       </c>
-      <c r="D49" s="55">
+      <c r="D49" s="54">
         <f t="shared" si="65"/>
         <v>-20.604500000000002</v>
       </c>
@@ -19578,11 +19578,11 @@
       <c r="A50" s="8">
         <v>20</v>
       </c>
-      <c r="B50" s="55"/>
+      <c r="B50" s="54"/>
       <c r="C50" s="37">
         <v>-20.385000000000002</v>
       </c>
-      <c r="D50" s="55"/>
+      <c r="D50" s="54"/>
       <c r="E50" s="56"/>
       <c r="F50" s="57"/>
       <c r="G50" s="57"/>
@@ -19696,6 +19696,10 @@
     <mergeCell ref="M39:M40"/>
     <mergeCell ref="N41:N42"/>
     <mergeCell ref="N43:N44"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="M35:M36"/>
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="N5:N6"/>
     <mergeCell ref="N7:N8"/>
@@ -19705,10 +19709,6 @@
     <mergeCell ref="N15:N16"/>
     <mergeCell ref="N17:N18"/>
     <mergeCell ref="N19:N20"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="M35:M36"/>
     <mergeCell ref="K45:K46"/>
     <mergeCell ref="K47:K48"/>
     <mergeCell ref="K49:K50"/>
@@ -19886,8 +19886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4763BB1F-A466-48F0-ADE4-9FFEFA23D264}">
   <dimension ref="A1:W42"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19:H20"/>
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17:Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20693,7 +20693,7 @@
       </c>
       <c r="I17" s="63"/>
       <c r="J17" s="65"/>
-      <c r="K17" s="55">
+      <c r="K17" s="54">
         <v>3.1095000000000002</v>
       </c>
       <c r="L17" s="38">
@@ -20737,7 +20737,7 @@
       <c r="H18" s="66"/>
       <c r="I18" s="63"/>
       <c r="J18" s="65"/>
-      <c r="K18" s="55"/>
+      <c r="K18" s="54"/>
       <c r="L18" s="38">
         <v>7.5310000000000002E-2</v>
       </c>
@@ -20753,7 +20753,7 @@
       <c r="A19" s="8">
         <v>9</v>
       </c>
-      <c r="B19" s="55">
+      <c r="B19" s="54">
         <v>7.9169999999999989</v>
       </c>
       <c r="C19" s="39">
@@ -20814,7 +20814,7 @@
       <c r="A20" s="8">
         <v>9</v>
       </c>
-      <c r="B20" s="55"/>
+      <c r="B20" s="54"/>
       <c r="C20" s="39">
         <v>7.0709999999999995E-2</v>
       </c>
@@ -22120,8 +22120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB3AB737-2DEC-402C-8DC2-07BEE529A9DE}">
   <dimension ref="A2:P61"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65:XFD65"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22402,7 +22402,7 @@
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
       <c r="B20" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -22411,7 +22411,7 @@
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
       <c r="I20" s="26" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J20" s="26"/>
       <c r="K20" s="26"/>
@@ -24306,8 +24306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D15522-C470-413D-B51F-D9EA713DB163}">
   <dimension ref="A1:Q104"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26:G35"/>
+    <sheetView topLeftCell="A31" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40:K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26670,8 +26670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6935F02E-8B65-4A8C-9022-EC9B9FAD68E1}">
   <dimension ref="A2:O64"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L46" sqref="L46"/>
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36:J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26839,7 +26839,7 @@
         <f t="shared" si="0"/>
         <v>48.40353390639924</v>
       </c>
-      <c r="D6" s="73">
+      <c r="D6" s="72">
         <f>AVERAGE(C6:C6)</f>
         <v>48.40353390639924</v>
       </c>
@@ -26878,7 +26878,7 @@
         <f t="shared" si="0"/>
         <v>72.185768863419298</v>
       </c>
-      <c r="D7" s="73"/>
+      <c r="D7" s="72"/>
       <c r="E7" s="49"/>
       <c r="F7" s="44"/>
       <c r="G7" s="46"/>
@@ -26922,7 +26922,7 @@
         <f t="shared" si="1"/>
         <v>28.632760267430751</v>
       </c>
-      <c r="J8" s="72">
+      <c r="J8" s="73">
         <f t="shared" ref="J8" si="6">AVERAGE(I8:I9)</f>
         <v>31.593600764087867</v>
       </c>
@@ -26955,7 +26955,7 @@
         <f t="shared" si="1"/>
         <v>34.55444126074498</v>
       </c>
-      <c r="J9" s="72"/>
+      <c r="J9" s="73"/>
       <c r="K9" s="46"/>
       <c r="L9" s="44"/>
       <c r="M9" s="46"/>
@@ -26971,7 +26971,7 @@
         <f t="shared" si="0"/>
         <v>188.61365807067813</v>
       </c>
-      <c r="D10" s="73">
+      <c r="D10" s="72">
         <f>AVERAGE(C11:C11)</f>
         <v>59.912607449856743</v>
       </c>
@@ -26988,7 +26988,7 @@
         <f t="shared" si="1"/>
         <v>26.770296084049665</v>
       </c>
-      <c r="J10" s="72">
+      <c r="J10" s="73">
         <f t="shared" ref="J10" si="8">AVERAGE(I10:I11)</f>
         <v>32.691977077363894</v>
       </c>
@@ -27010,7 +27010,7 @@
         <f t="shared" si="0"/>
         <v>59.912607449856743</v>
       </c>
-      <c r="D11" s="73"/>
+      <c r="D11" s="72"/>
       <c r="E11" s="49"/>
       <c r="F11" s="44"/>
       <c r="G11" s="46"/>
@@ -27021,7 +27021,7 @@
         <f t="shared" si="1"/>
         <v>38.613658070678127</v>
       </c>
-      <c r="J11" s="72"/>
+      <c r="J11" s="73"/>
       <c r="K11" s="46"/>
       <c r="L11" s="44"/>
       <c r="M11" s="46"/>
@@ -27054,7 +27054,7 @@
         <f t="shared" si="1"/>
         <v>52.271728748806112</v>
       </c>
-      <c r="J12" s="72">
+      <c r="J12" s="73">
         <f t="shared" ref="J12" si="12">AVERAGE(I12:I13)</f>
         <v>50.934574976122249</v>
       </c>
@@ -27087,7 +27087,7 @@
         <f t="shared" si="1"/>
         <v>49.597421203438394</v>
       </c>
-      <c r="J13" s="72"/>
+      <c r="J13" s="73"/>
       <c r="K13" s="46"/>
       <c r="L13" s="44"/>
       <c r="M13" s="46"/>
@@ -27396,7 +27396,7 @@
         <f t="shared" si="1"/>
         <v>52.46275071633238</v>
       </c>
-      <c r="J22" s="72">
+      <c r="J22" s="73">
         <f t="shared" ref="J22:J32" si="32">AVERAGE(I22:I23)</f>
         <v>48.522922636103146</v>
       </c>
@@ -27429,7 +27429,7 @@
         <f t="shared" si="1"/>
         <v>44.58309455587392</v>
       </c>
-      <c r="J23" s="72"/>
+      <c r="J23" s="73"/>
       <c r="K23" s="46"/>
       <c r="L23" s="44"/>
       <c r="M23" s="46"/>
@@ -27882,7 +27882,7 @@
         <f t="shared" si="1"/>
         <v>76.053963705826177</v>
       </c>
-      <c r="J36" s="73">
+      <c r="J36" s="72">
         <f t="shared" si="22"/>
         <v>75.934574976122263</v>
       </c>
@@ -27915,7 +27915,7 @@
         <f t="shared" si="1"/>
         <v>75.815186246418349</v>
       </c>
-      <c r="J37" s="73"/>
+      <c r="J37" s="72"/>
       <c r="K37" s="46"/>
       <c r="L37" s="44"/>
       <c r="M37" s="46"/>
@@ -27948,7 +27948,7 @@
         <f t="shared" si="1"/>
         <v>47.734957020057301</v>
       </c>
-      <c r="J38" s="72">
+      <c r="J38" s="73">
         <f t="shared" si="26"/>
         <v>47.949856733524356</v>
       </c>
@@ -27981,7 +27981,7 @@
         <f t="shared" si="1"/>
         <v>48.164756446991412</v>
       </c>
-      <c r="J39" s="72"/>
+      <c r="J39" s="73"/>
       <c r="K39" s="46"/>
       <c r="L39" s="44"/>
       <c r="M39" s="46"/>
@@ -28080,7 +28080,7 @@
         <f t="shared" si="1"/>
         <v>53.131327602674311</v>
       </c>
-      <c r="J42" s="72">
+      <c r="J42" s="73">
         <f t="shared" si="28"/>
         <v>53.059694364851964</v>
       </c>
@@ -28113,7 +28113,7 @@
         <f t="shared" si="1"/>
         <v>52.988061127029617</v>
       </c>
-      <c r="J43" s="72"/>
+      <c r="J43" s="73"/>
       <c r="K43" s="46"/>
       <c r="L43" s="44"/>
       <c r="M43" s="46"/>
@@ -28256,6 +28256,9 @@
     <mergeCell ref="J10:J11"/>
     <mergeCell ref="K10:K11"/>
     <mergeCell ref="L4:L13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
     <mergeCell ref="M4:M13"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
@@ -28272,14 +28275,6 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F23"/>
-    <mergeCell ref="G14:G23"/>
-    <mergeCell ref="J14:J15"/>
     <mergeCell ref="K14:K15"/>
     <mergeCell ref="L14:L23"/>
     <mergeCell ref="M14:M23"/>
@@ -28291,6 +28286,11 @@
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="J18:J19"/>
     <mergeCell ref="K18:K19"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F23"/>
+    <mergeCell ref="G14:G23"/>
+    <mergeCell ref="J14:J15"/>
     <mergeCell ref="D30:D31"/>
     <mergeCell ref="E30:E31"/>
     <mergeCell ref="J30:J31"/>
@@ -28329,6 +28329,8 @@
     <mergeCell ref="G34:G43"/>
     <mergeCell ref="J34:J35"/>
     <mergeCell ref="K34:K35"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
     <mergeCell ref="L34:L43"/>
     <mergeCell ref="M34:M43"/>
     <mergeCell ref="D36:D37"/>
@@ -28345,8 +28347,6 @@
     <mergeCell ref="K40:K41"/>
     <mergeCell ref="D42:D43"/>
     <mergeCell ref="E42:E43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
